--- a/amortecomentoExpon/treino.xlsx
+++ b/amortecomentoExpon/treino.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Month</t>
   </si>
   <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month_num</t>
   </si>
 </sst>
 </file>
@@ -359,2516 +356,1349 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1104537600</v>
+        <v>12784</v>
       </c>
       <c r="B2" t="n">
         <v>81</v>
       </c>
-      <c r="C2" t="n">
-        <v>24061</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1107216000</v>
+        <v>12815</v>
       </c>
       <c r="B3" t="n">
         <v>76.4</v>
       </c>
-      <c r="C3" t="n">
-        <v>24062</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1109635200</v>
+        <v>12843</v>
       </c>
       <c r="B4" t="n">
         <v>88</v>
       </c>
-      <c r="C4" t="n">
-        <v>24063</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1112313600</v>
+        <v>12874</v>
       </c>
       <c r="B5" t="n">
         <v>87</v>
       </c>
-      <c r="C5" t="n">
-        <v>24064</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1114905600</v>
+        <v>12904</v>
       </c>
       <c r="B6" t="n">
         <v>91.1</v>
       </c>
-      <c r="C6" t="n">
-        <v>24065</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1117584000</v>
+        <v>12935</v>
       </c>
       <c r="B7" t="n">
         <v>91.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>24066</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1120176000</v>
+        <v>12965</v>
       </c>
       <c r="B8" t="n">
         <v>90.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>24067</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1122854400</v>
+        <v>12996</v>
       </c>
       <c r="B9" t="n">
         <v>95.6</v>
       </c>
-      <c r="C9" t="n">
-        <v>24068</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1125532800</v>
+        <v>13027</v>
       </c>
       <c r="B10" t="n">
         <v>92</v>
       </c>
-      <c r="C10" t="n">
-        <v>24069</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1128124800</v>
+        <v>13057</v>
       </c>
       <c r="B11" t="n">
         <v>93.7</v>
       </c>
-      <c r="C11" t="n">
-        <v>24070</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1130803200</v>
+        <v>13088</v>
       </c>
       <c r="B12" t="n">
         <v>92.4</v>
       </c>
-      <c r="C12" t="n">
-        <v>24071</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1133395200</v>
+        <v>13118</v>
       </c>
       <c r="B13" t="n">
         <v>86.6</v>
       </c>
-      <c r="C13" t="n">
-        <v>24072</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1136073600</v>
+        <v>13149</v>
       </c>
       <c r="B14" t="n">
         <v>83.7</v>
       </c>
-      <c r="C14" t="n">
-        <v>24073</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1138752000</v>
+        <v>13180</v>
       </c>
       <c r="B15" t="n">
         <v>80.2</v>
       </c>
-      <c r="C15" t="n">
-        <v>24074</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1141171200</v>
+        <v>13208</v>
       </c>
       <c r="B16" t="n">
         <v>92.4</v>
       </c>
-      <c r="C16" t="n">
-        <v>24075</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1143849600</v>
+        <v>13239</v>
       </c>
       <c r="B17" t="n">
         <v>85.7</v>
       </c>
-      <c r="C17" t="n">
-        <v>24076</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1146441600</v>
+        <v>13269</v>
       </c>
       <c r="B18" t="n">
         <v>95.4</v>
       </c>
-      <c r="C18" t="n">
-        <v>24077</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1149120000</v>
+        <v>13300</v>
       </c>
       <c r="B19" t="n">
         <v>91.1</v>
       </c>
-      <c r="C19" t="n">
-        <v>24078</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1151712000</v>
+        <v>13330</v>
       </c>
       <c r="B20" t="n">
         <v>93.8</v>
       </c>
-      <c r="C20" t="n">
-        <v>24079</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1154390400</v>
+        <v>13361</v>
       </c>
       <c r="B21" t="n">
         <v>98.6</v>
       </c>
-      <c r="C21" t="n">
-        <v>24080</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1157068800</v>
+        <v>13392</v>
       </c>
       <c r="B22" t="n">
         <v>93.2</v>
       </c>
-      <c r="C22" t="n">
-        <v>24081</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1159660800</v>
+        <v>13422</v>
       </c>
       <c r="B23" t="n">
         <v>97.5</v>
       </c>
-      <c r="C23" t="n">
-        <v>24082</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1162339200</v>
+        <v>13453</v>
       </c>
       <c r="B24" t="n">
         <v>95.9</v>
       </c>
-      <c r="C24" t="n">
-        <v>24083</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1164931200</v>
+        <v>13483</v>
       </c>
       <c r="B25" t="n">
         <v>87</v>
       </c>
-      <c r="C25" t="n">
-        <v>24084</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1167609600</v>
+        <v>13514</v>
       </c>
       <c r="B26" t="n">
         <v>87</v>
       </c>
-      <c r="C26" t="n">
-        <v>24085</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1170288000</v>
+        <v>13545</v>
       </c>
       <c r="B27" t="n">
         <v>82.6</v>
       </c>
-      <c r="C27" t="n">
-        <v>24086</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1172707200</v>
+        <v>13573</v>
       </c>
       <c r="B28" t="n">
         <v>96.4</v>
       </c>
-      <c r="C28" t="n">
-        <v>24087</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1175385600</v>
+        <v>13604</v>
       </c>
       <c r="B29" t="n">
         <v>90.6</v>
       </c>
-      <c r="C29" t="n">
-        <v>24088</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1177977600</v>
+        <v>13634</v>
       </c>
       <c r="B30" t="n">
         <v>99.9</v>
       </c>
-      <c r="C30" t="n">
-        <v>24089</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1180656000</v>
+        <v>13665</v>
       </c>
       <c r="B31" t="n">
         <v>96.9</v>
       </c>
-      <c r="C31" t="n">
-        <v>24090</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1183248000</v>
+        <v>13695</v>
       </c>
       <c r="B32" t="n">
         <v>99.8</v>
       </c>
-      <c r="C32" t="n">
-        <v>24091</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1185926400</v>
+        <v>13726</v>
       </c>
       <c r="B33" t="n">
         <v>104.9</v>
       </c>
-      <c r="C33" t="n">
-        <v>24092</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1188604800</v>
+        <v>13757</v>
       </c>
       <c r="B34" t="n">
         <v>98.4</v>
       </c>
-      <c r="C34" t="n">
-        <v>24093</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1191196800</v>
+        <v>13787</v>
       </c>
       <c r="B35" t="n">
         <v>107.8</v>
       </c>
-      <c r="C35" t="n">
-        <v>24094</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1193875200</v>
+        <v>13818</v>
       </c>
       <c r="B36" t="n">
         <v>102.4</v>
       </c>
-      <c r="C36" t="n">
-        <v>24095</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1196467200</v>
+        <v>13848</v>
       </c>
       <c r="B37" t="n">
         <v>92.6</v>
       </c>
-      <c r="C37" t="n">
-        <v>24096</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1199145600</v>
+        <v>13879</v>
       </c>
       <c r="B38" t="n">
         <v>94.8</v>
       </c>
-      <c r="C38" t="n">
-        <v>24097</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1201824000</v>
+        <v>13910</v>
       </c>
       <c r="B39" t="n">
         <v>91.1</v>
       </c>
-      <c r="C39" t="n">
-        <v>24098</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1204329600</v>
+        <v>13939</v>
       </c>
       <c r="B40" t="n">
         <v>97.7</v>
       </c>
-      <c r="C40" t="n">
-        <v>24099</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1207008000</v>
+        <v>13970</v>
       </c>
       <c r="B41" t="n">
         <v>99.2</v>
       </c>
-      <c r="C41" t="n">
-        <v>24100</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1209600000</v>
+        <v>14000</v>
       </c>
       <c r="B42" t="n">
         <v>102.5</v>
       </c>
-      <c r="C42" t="n">
-        <v>24101</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1212278400</v>
+        <v>14031</v>
       </c>
       <c r="B43" t="n">
         <v>103.3</v>
       </c>
-      <c r="C43" t="n">
-        <v>24102</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1214870400</v>
+        <v>14061</v>
       </c>
       <c r="B44" t="n">
         <v>108.5</v>
       </c>
-      <c r="C44" t="n">
-        <v>24103</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1217548800</v>
+        <v>14092</v>
       </c>
       <c r="B45" t="n">
         <v>106.9</v>
       </c>
-      <c r="C45" t="n">
-        <v>24104</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1220227200</v>
+        <v>14123</v>
       </c>
       <c r="B46" t="n">
         <v>107.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>24105</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1222819200</v>
+        <v>14153</v>
       </c>
       <c r="B47" t="n">
         <v>108.4</v>
       </c>
-      <c r="C47" t="n">
-        <v>24106</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1225497600</v>
+        <v>14184</v>
       </c>
       <c r="B48" t="n">
         <v>96.2</v>
       </c>
-      <c r="C48" t="n">
-        <v>24107</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1228089600</v>
+        <v>14214</v>
       </c>
       <c r="B49" t="n">
         <v>79.1</v>
       </c>
-      <c r="C49" t="n">
-        <v>24108</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1230768000</v>
+        <v>14245</v>
       </c>
       <c r="B50" t="n">
         <v>78.7</v>
       </c>
-      <c r="C50" t="n">
-        <v>24109</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1233446400</v>
+        <v>14276</v>
       </c>
       <c r="B51" t="n">
         <v>76.1</v>
       </c>
-      <c r="C51" t="n">
-        <v>24110</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1235865600</v>
+        <v>14304</v>
       </c>
       <c r="B52" t="n">
         <v>88.6</v>
       </c>
-      <c r="C52" t="n">
-        <v>24111</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1238544000</v>
+        <v>14335</v>
       </c>
       <c r="B53" t="n">
         <v>85.2</v>
       </c>
-      <c r="C53" t="n">
-        <v>24112</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1241136000</v>
+        <v>14365</v>
       </c>
       <c r="B54" t="n">
         <v>91.3</v>
       </c>
-      <c r="C54" t="n">
-        <v>24113</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1243814400</v>
+        <v>14396</v>
       </c>
       <c r="B55" t="n">
         <v>92.2</v>
       </c>
-      <c r="C55" t="n">
-        <v>24114</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1246406400</v>
+        <v>14426</v>
       </c>
       <c r="B56" t="n">
         <v>97.7</v>
       </c>
-      <c r="C56" t="n">
-        <v>24115</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1249084800</v>
+        <v>14457</v>
       </c>
       <c r="B57" t="n">
         <v>99.6</v>
       </c>
-      <c r="C57" t="n">
-        <v>24116</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1251763200</v>
+        <v>14488</v>
       </c>
       <c r="B58" t="n">
         <v>99.4</v>
       </c>
-      <c r="C58" t="n">
-        <v>24117</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1254355200</v>
+        <v>14518</v>
       </c>
       <c r="B59" t="n">
         <v>105.6</v>
       </c>
-      <c r="C59" t="n">
-        <v>24118</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1257033600</v>
+        <v>14549</v>
       </c>
       <c r="B60" t="n">
         <v>101.4</v>
       </c>
-      <c r="C60" t="n">
-        <v>24119</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1259625600</v>
+        <v>14579</v>
       </c>
       <c r="B61" t="n">
         <v>94.1</v>
       </c>
-      <c r="C61" t="n">
-        <v>24120</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1262304000</v>
+        <v>14610</v>
       </c>
       <c r="B62" t="n">
         <v>91.2</v>
       </c>
-      <c r="C62" t="n">
-        <v>24121</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1264982400</v>
+        <v>14641</v>
       </c>
       <c r="B63" t="n">
         <v>89</v>
       </c>
-      <c r="C63" t="n">
-        <v>24122</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1267401600</v>
+        <v>14669</v>
       </c>
       <c r="B64" t="n">
         <v>105.1</v>
       </c>
-      <c r="C64" t="n">
-        <v>24123</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1270080000</v>
+        <v>14700</v>
       </c>
       <c r="B65" t="n">
         <v>99.3</v>
       </c>
-      <c r="C65" t="n">
-        <v>24124</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1272672000</v>
+        <v>14730</v>
       </c>
       <c r="B66" t="n">
         <v>104.3</v>
       </c>
-      <c r="C66" t="n">
-        <v>24125</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1275350400</v>
+        <v>14761</v>
       </c>
       <c r="B67" t="n">
         <v>102.5</v>
       </c>
-      <c r="C67" t="n">
-        <v>24126</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1277942400</v>
+        <v>14791</v>
       </c>
       <c r="B68" t="n">
         <v>106.9</v>
       </c>
-      <c r="C68" t="n">
-        <v>24127</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1280620800</v>
+        <v>14822</v>
       </c>
       <c r="B69" t="n">
         <v>108.1</v>
       </c>
-      <c r="C69" t="n">
-        <v>24128</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1283299200</v>
+        <v>14853</v>
       </c>
       <c r="B70" t="n">
         <v>105.8</v>
       </c>
-      <c r="C70" t="n">
-        <v>24129</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1285891200</v>
+        <v>14883</v>
       </c>
       <c r="B71" t="n">
         <v>107.7</v>
       </c>
-      <c r="C71" t="n">
-        <v>24130</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1288569600</v>
+        <v>14914</v>
       </c>
       <c r="B72" t="n">
         <v>106.8</v>
       </c>
-      <c r="C72" t="n">
-        <v>24131</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1291161600</v>
+        <v>14944</v>
       </c>
       <c r="B73" t="n">
         <v>96.6</v>
       </c>
-      <c r="C73" t="n">
-        <v>24132</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1293840000</v>
+        <v>14975</v>
       </c>
       <c r="B74" t="n">
         <v>93.2</v>
       </c>
-      <c r="C74" t="n">
-        <v>24133</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1296518400</v>
+        <v>15006</v>
       </c>
       <c r="B75" t="n">
         <v>95.4</v>
       </c>
-      <c r="C75" t="n">
-        <v>24134</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1298937600</v>
+        <v>15034</v>
       </c>
       <c r="B76" t="n">
         <v>104.4</v>
       </c>
-      <c r="C76" t="n">
-        <v>24135</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1301616000</v>
+        <v>15065</v>
       </c>
       <c r="B77" t="n">
         <v>97.5</v>
       </c>
-      <c r="C77" t="n">
-        <v>24136</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1304208000</v>
+        <v>15095</v>
       </c>
       <c r="B78" t="n">
         <v>107.1</v>
       </c>
-      <c r="C78" t="n">
-        <v>24137</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1306886400</v>
+        <v>15126</v>
       </c>
       <c r="B79" t="n">
         <v>102.8</v>
       </c>
-      <c r="C79" t="n">
-        <v>24138</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1309478400</v>
+        <v>15156</v>
       </c>
       <c r="B80" t="n">
         <v>106.1</v>
       </c>
-      <c r="C80" t="n">
-        <v>24139</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1312156800</v>
+        <v>15187</v>
       </c>
       <c r="B81" t="n">
         <v>110.8</v>
       </c>
-      <c r="C81" t="n">
-        <v>24140</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1314835200</v>
+        <v>15218</v>
       </c>
       <c r="B82" t="n">
         <v>104.8</v>
       </c>
-      <c r="C82" t="n">
-        <v>24141</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1317427200</v>
+        <v>15248</v>
       </c>
       <c r="B83" t="n">
         <v>106.3</v>
       </c>
-      <c r="C83" t="n">
-        <v>24142</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1320105600</v>
+        <v>15279</v>
       </c>
       <c r="B84" t="n">
         <v>104.2</v>
       </c>
-      <c r="C84" t="n">
-        <v>24143</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1322697600</v>
+        <v>15309</v>
       </c>
       <c r="B85" t="n">
         <v>95.7</v>
       </c>
-      <c r="C85" t="n">
-        <v>24144</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1325376000</v>
+        <v>15340</v>
       </c>
       <c r="B86" t="n">
         <v>88.7</v>
       </c>
-      <c r="C86" t="n">
-        <v>24145</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1328054400</v>
+        <v>15371</v>
       </c>
       <c r="B87" t="n">
         <v>89.8</v>
       </c>
-      <c r="C87" t="n">
-        <v>24146</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1330560000</v>
+        <v>15400</v>
       </c>
       <c r="B88" t="n">
         <v>99.7</v>
       </c>
-      <c r="C88" t="n">
-        <v>24147</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1333238400</v>
+        <v>15431</v>
       </c>
       <c r="B89" t="n">
         <v>92.8</v>
       </c>
-      <c r="C89" t="n">
-        <v>24148</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1335830400</v>
+        <v>15461</v>
       </c>
       <c r="B90" t="n">
         <v>102.5</v>
       </c>
-      <c r="C90" t="n">
-        <v>24149</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1338508800</v>
+        <v>15492</v>
       </c>
       <c r="B91" t="n">
         <v>98.3</v>
       </c>
-      <c r="C91" t="n">
-        <v>24150</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1341100800</v>
+        <v>15522</v>
       </c>
       <c r="B92" t="n">
         <v>104.5</v>
       </c>
-      <c r="C92" t="n">
-        <v>24151</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1343779200</v>
+        <v>15553</v>
       </c>
       <c r="B93" t="n">
         <v>111.5</v>
       </c>
-      <c r="C93" t="n">
-        <v>24152</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1346457600</v>
+        <v>15584</v>
       </c>
       <c r="B94" t="n">
         <v>103.4</v>
       </c>
-      <c r="C94" t="n">
-        <v>24153</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1349049600</v>
+        <v>15614</v>
       </c>
       <c r="B95" t="n">
         <v>111.8</v>
       </c>
-      <c r="C95" t="n">
-        <v>24154</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1351728000</v>
+        <v>15645</v>
       </c>
       <c r="B96" t="n">
         <v>104.8</v>
       </c>
-      <c r="C96" t="n">
-        <v>24155</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1354320000</v>
+        <v>15675</v>
       </c>
       <c r="B97" t="n">
         <v>92.2</v>
       </c>
-      <c r="C97" t="n">
-        <v>24156</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1356998400</v>
+        <v>15706</v>
       </c>
       <c r="B98" t="n">
         <v>94.5</v>
       </c>
-      <c r="C98" t="n">
-        <v>24157</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1359676800</v>
+        <v>15737</v>
       </c>
       <c r="B99" t="n">
         <v>88.1</v>
       </c>
-      <c r="C99" t="n">
-        <v>24158</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1362096000</v>
+        <v>15765</v>
       </c>
       <c r="B100" t="n">
         <v>97.7</v>
       </c>
-      <c r="C100" t="n">
-        <v>24159</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1364774400</v>
+        <v>15796</v>
       </c>
       <c r="B101" t="n">
         <v>101.8</v>
       </c>
-      <c r="C101" t="n">
-        <v>24160</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1367366400</v>
+        <v>15826</v>
       </c>
       <c r="B102" t="n">
         <v>105</v>
       </c>
-      <c r="C102" t="n">
-        <v>24161</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1370044800</v>
+        <v>15857</v>
       </c>
       <c r="B103" t="n">
         <v>101.7</v>
       </c>
-      <c r="C103" t="n">
-        <v>24162</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1372636800</v>
+        <v>15887</v>
       </c>
       <c r="B104" t="n">
         <v>108</v>
       </c>
-      <c r="C104" t="n">
-        <v>24163</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1375315200</v>
+        <v>15918</v>
       </c>
       <c r="B105" t="n">
         <v>112</v>
       </c>
-      <c r="C105" t="n">
-        <v>24164</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1377993600</v>
+        <v>15949</v>
       </c>
       <c r="B106" t="n">
         <v>107.3</v>
       </c>
-      <c r="C106" t="n">
-        <v>24165</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1380585600</v>
+        <v>15979</v>
       </c>
       <c r="B107" t="n">
         <v>112.6</v>
       </c>
-      <c r="C107" t="n">
-        <v>24166</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1383264000</v>
+        <v>16010</v>
       </c>
       <c r="B108" t="n">
         <v>106.1</v>
       </c>
-      <c r="C108" t="n">
-        <v>24167</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1385856000</v>
+        <v>16040</v>
       </c>
       <c r="B109" t="n">
         <v>90.1</v>
       </c>
-      <c r="C109" t="n">
-        <v>24168</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1388534400</v>
+        <v>16071</v>
       </c>
       <c r="B110" t="n">
         <v>92.6</v>
       </c>
-      <c r="C110" t="n">
-        <v>24169</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1391212800</v>
+        <v>16102</v>
       </c>
       <c r="B111" t="n">
         <v>92.3</v>
       </c>
-      <c r="C111" t="n">
-        <v>24170</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1393632000</v>
+        <v>16130</v>
       </c>
       <c r="B112" t="n">
         <v>97.3</v>
       </c>
-      <c r="C112" t="n">
-        <v>24171</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1396310400</v>
+        <v>16161</v>
       </c>
       <c r="B113" t="n">
         <v>96</v>
       </c>
-      <c r="C113" t="n">
-        <v>24172</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1398902400</v>
+        <v>16191</v>
       </c>
       <c r="B114" t="n">
         <v>101.7</v>
       </c>
-      <c r="C114" t="n">
-        <v>24173</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1401580800</v>
+        <v>16222</v>
       </c>
       <c r="B115" t="n">
         <v>94.9</v>
       </c>
-      <c r="C115" t="n">
-        <v>24174</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1404172800</v>
+        <v>16252</v>
       </c>
       <c r="B116" t="n">
         <v>104.4</v>
       </c>
-      <c r="C116" t="n">
-        <v>24175</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1406851200</v>
+        <v>16283</v>
       </c>
       <c r="B117" t="n">
         <v>106.3</v>
       </c>
-      <c r="C117" t="n">
-        <v>24176</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1409529600</v>
+        <v>16314</v>
       </c>
       <c r="B118" t="n">
         <v>105.6</v>
       </c>
-      <c r="C118" t="n">
-        <v>24177</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1412121600</v>
+        <v>16344</v>
       </c>
       <c r="B119" t="n">
         <v>109.3</v>
       </c>
-      <c r="C119" t="n">
-        <v>24178</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1414800000</v>
+        <v>16375</v>
       </c>
       <c r="B120" t="n">
         <v>99.8</v>
       </c>
-      <c r="C120" t="n">
-        <v>24179</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1417392000</v>
+        <v>16405</v>
       </c>
       <c r="B121" t="n">
         <v>87.7</v>
       </c>
-      <c r="C121" t="n">
-        <v>24180</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1420070400</v>
+        <v>16436</v>
       </c>
       <c r="B122" t="n">
         <v>88.1</v>
       </c>
-      <c r="C122" t="n">
-        <v>24181</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1422748800</v>
+        <v>16467</v>
       </c>
       <c r="B123" t="n">
         <v>83.7</v>
       </c>
-      <c r="C123" t="n">
-        <v>24182</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1425168000</v>
+        <v>16495</v>
       </c>
       <c r="B124" t="n">
         <v>94.3</v>
       </c>
-      <c r="C124" t="n">
-        <v>24183</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1427846400</v>
+        <v>16526</v>
       </c>
       <c r="B125" t="n">
         <v>88.8</v>
       </c>
-      <c r="C125" t="n">
-        <v>24184</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1430438400</v>
+        <v>16556</v>
       </c>
       <c r="B126" t="n">
         <v>93.1</v>
       </c>
-      <c r="C126" t="n">
-        <v>24185</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1433116800</v>
+        <v>16587</v>
       </c>
       <c r="B127" t="n">
         <v>92.5</v>
       </c>
-      <c r="C127" t="n">
-        <v>24186</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1435708800</v>
+        <v>16617</v>
       </c>
       <c r="B128" t="n">
         <v>95.5</v>
       </c>
-      <c r="C128" t="n">
-        <v>24187</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1438387200</v>
+        <v>16648</v>
       </c>
       <c r="B129" t="n">
         <v>97.6</v>
       </c>
-      <c r="C129" t="n">
-        <v>24188</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1441065600</v>
+        <v>16679</v>
       </c>
       <c r="B130" t="n">
         <v>94.3</v>
       </c>
-      <c r="C130" t="n">
-        <v>24189</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1443657600</v>
+        <v>16709</v>
       </c>
       <c r="B131" t="n">
         <v>97.2</v>
       </c>
-      <c r="C131" t="n">
-        <v>24190</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1446336000</v>
+        <v>16740</v>
       </c>
       <c r="B132" t="n">
         <v>87.6</v>
       </c>
-      <c r="C132" t="n">
-        <v>24191</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1448928000</v>
+        <v>16770</v>
       </c>
       <c r="B133" t="n">
         <v>77.2</v>
       </c>
-      <c r="C133" t="n">
-        <v>24192</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1451606400</v>
+        <v>16801</v>
       </c>
       <c r="B134" t="n">
         <v>76.3</v>
       </c>
-      <c r="C134" t="n">
-        <v>24193</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1454284800</v>
+        <v>16832</v>
       </c>
       <c r="B135" t="n">
         <v>75.8</v>
       </c>
-      <c r="C135" t="n">
-        <v>24194</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1456790400</v>
+        <v>16861</v>
       </c>
       <c r="B136" t="n">
         <v>83.7</v>
       </c>
-      <c r="C136" t="n">
-        <v>24195</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1459468800</v>
+        <v>16892</v>
       </c>
       <c r="B137" t="n">
         <v>83</v>
       </c>
-      <c r="C137" t="n">
-        <v>24196</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1462060800</v>
+        <v>16922</v>
       </c>
       <c r="B138" t="n">
         <v>86.3</v>
       </c>
-      <c r="C138" t="n">
-        <v>24197</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1464739200</v>
+        <v>16953</v>
       </c>
       <c r="B139" t="n">
         <v>87.7</v>
       </c>
-      <c r="C139" t="n">
-        <v>24198</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1467331200</v>
+        <v>16983</v>
       </c>
       <c r="B140" t="n">
         <v>89.6</v>
       </c>
-      <c r="C140" t="n">
-        <v>24199</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1470009600</v>
+        <v>17014</v>
       </c>
       <c r="B141" t="n">
         <v>93</v>
       </c>
-      <c r="C141" t="n">
-        <v>24200</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1472688000</v>
+        <v>17045</v>
       </c>
       <c r="B142" t="n">
         <v>90.7</v>
       </c>
-      <c r="C142" t="n">
-        <v>24201</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1475280000</v>
+        <v>17075</v>
       </c>
       <c r="B143" t="n">
         <v>90.2</v>
       </c>
-      <c r="C143" t="n">
-        <v>24202</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1477958400</v>
+        <v>17106</v>
       </c>
       <c r="B144" t="n">
         <v>86.5</v>
       </c>
-      <c r="C144" t="n">
-        <v>24203</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1480550400</v>
+        <v>17136</v>
       </c>
       <c r="B145" t="n">
         <v>77.2</v>
       </c>
-      <c r="C145" t="n">
-        <v>24204</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1483228800</v>
+        <v>17167</v>
       </c>
       <c r="B146" t="n">
         <v>77.9</v>
       </c>
-      <c r="C146" t="n">
-        <v>24205</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1485907200</v>
+        <v>17198</v>
       </c>
       <c r="B147" t="n">
         <v>75.9</v>
       </c>
-      <c r="C147" t="n">
-        <v>24206</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1488326400</v>
+        <v>17226</v>
       </c>
       <c r="B148" t="n">
         <v>85.4</v>
       </c>
-      <c r="C148" t="n">
-        <v>24207</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1491004800</v>
+        <v>17257</v>
       </c>
       <c r="B149" t="n">
         <v>79.3</v>
       </c>
-      <c r="C149" t="n">
-        <v>24208</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1493596800</v>
+        <v>17287</v>
       </c>
       <c r="B150" t="n">
         <v>90.1</v>
       </c>
-      <c r="C150" t="n">
-        <v>24209</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1496275200</v>
+        <v>17318</v>
       </c>
       <c r="B151" t="n">
         <v>88.4</v>
       </c>
-      <c r="C151" t="n">
-        <v>24210</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1498867200</v>
+        <v>17348</v>
       </c>
       <c r="B152" t="n">
         <v>92.1</v>
       </c>
-      <c r="C152" t="n">
-        <v>24211</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1501545600</v>
+        <v>17379</v>
       </c>
       <c r="B153" t="n">
         <v>96.7</v>
       </c>
-      <c r="C153" t="n">
-        <v>24212</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1504224000</v>
+        <v>17410</v>
       </c>
       <c r="B154" t="n">
         <v>93</v>
       </c>
-      <c r="C154" t="n">
-        <v>24213</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1506816000</v>
+        <v>17440</v>
       </c>
       <c r="B155" t="n">
         <v>95.1</v>
       </c>
-      <c r="C155" t="n">
-        <v>24214</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1509494400</v>
+        <v>17471</v>
       </c>
       <c r="B156" t="n">
         <v>90.6</v>
       </c>
-      <c r="C156" t="n">
-        <v>24215</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1512086400</v>
+        <v>17501</v>
       </c>
       <c r="B157" t="n">
         <v>81</v>
       </c>
-      <c r="C157" t="n">
-        <v>24216</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1514764800</v>
+        <v>17532</v>
       </c>
       <c r="B158" t="n">
         <v>82.3</v>
       </c>
-      <c r="C158" t="n">
-        <v>24217</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1517443200</v>
+        <v>17563</v>
       </c>
       <c r="B159" t="n">
         <v>77.3</v>
       </c>
-      <c r="C159" t="n">
-        <v>24218</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1519862400</v>
+        <v>17591</v>
       </c>
       <c r="B160" t="n">
         <v>86.2</v>
       </c>
-      <c r="C160" t="n">
-        <v>24219</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1522540800</v>
+        <v>17622</v>
       </c>
       <c r="B161" t="n">
         <v>86.5</v>
       </c>
-      <c r="C161" t="n">
-        <v>24220</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1525132800</v>
+        <v>17652</v>
       </c>
       <c r="B162" t="n">
         <v>84.4</v>
       </c>
-      <c r="C162" t="n">
-        <v>24221</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1527811200</v>
+        <v>17683</v>
       </c>
       <c r="B163" t="n">
         <v>91.1</v>
       </c>
-      <c r="C163" t="n">
-        <v>24222</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1530403200</v>
+        <v>17713</v>
       </c>
       <c r="B164" t="n">
         <v>95.8</v>
       </c>
-      <c r="C164" t="n">
-        <v>24223</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1533081600</v>
+        <v>17744</v>
       </c>
       <c r="B165" t="n">
         <v>98.2</v>
       </c>
-      <c r="C165" t="n">
-        <v>24224</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1535760000</v>
+        <v>17775</v>
       </c>
       <c r="B166" t="n">
         <v>90.7</v>
       </c>
-      <c r="C166" t="n">
-        <v>24225</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1538352000</v>
+        <v>17805</v>
       </c>
       <c r="B167" t="n">
         <v>95.8</v>
       </c>
-      <c r="C167" t="n">
-        <v>24226</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1541030400</v>
+        <v>17836</v>
       </c>
       <c r="B168" t="n">
         <v>89.5</v>
       </c>
-      <c r="C168" t="n">
-        <v>24227</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1543622400</v>
+        <v>17866</v>
       </c>
       <c r="B169" t="n">
         <v>78</v>
-      </c>
-      <c r="C169" t="n">
-        <v>24228</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>1546300800</v>
-      </c>
-      <c r="B170" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="C170" t="n">
-        <v>24229</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1548979200</v>
-      </c>
-      <c r="B171" t="n">
-        <v>79.1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>24230</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>1551398400</v>
-      </c>
-      <c r="B172" t="n">
-        <v>81</v>
-      </c>
-      <c r="C172" t="n">
-        <v>24231</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>1554076800</v>
-      </c>
-      <c r="B173" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="C173" t="n">
-        <v>24232</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>1556668800</v>
-      </c>
-      <c r="B174" t="n">
-        <v>91</v>
-      </c>
-      <c r="C174" t="n">
-        <v>24233</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1559347200</v>
-      </c>
-      <c r="B175" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="C175" t="n">
-        <v>24234</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>1561939200</v>
-      </c>
-      <c r="B176" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="C176" t="n">
-        <v>24235</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>1564617600</v>
-      </c>
-      <c r="B177" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C177" t="n">
-        <v>24236</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1567296000</v>
-      </c>
-      <c r="B178" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>24237</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1569888000</v>
-      </c>
-      <c r="B179" t="n">
-        <v>97</v>
-      </c>
-      <c r="C179" t="n">
-        <v>24238</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>1572566400</v>
-      </c>
-      <c r="B180" t="n">
-        <v>88</v>
-      </c>
-      <c r="C180" t="n">
-        <v>24239</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>1575158400</v>
-      </c>
-      <c r="B181" t="n">
-        <v>76.9</v>
-      </c>
-      <c r="C181" t="n">
-        <v>24240</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>1104537600</v>
-      </c>
-      <c r="B182" t="n">
-        <v>81</v>
-      </c>
-      <c r="C182" t="n">
-        <v>24061</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1107216000</v>
-      </c>
-      <c r="B183" t="n">
-        <v>76.4</v>
-      </c>
-      <c r="C183" t="n">
-        <v>24062</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>1109635200</v>
-      </c>
-      <c r="B184" t="n">
-        <v>88</v>
-      </c>
-      <c r="C184" t="n">
-        <v>24063</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>1112313600</v>
-      </c>
-      <c r="B185" t="n">
-        <v>87</v>
-      </c>
-      <c r="C185" t="n">
-        <v>24064</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>1114905600</v>
-      </c>
-      <c r="B186" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="C186" t="n">
-        <v>24065</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1117584000</v>
-      </c>
-      <c r="B187" t="n">
-        <v>91.4</v>
-      </c>
-      <c r="C187" t="n">
-        <v>24066</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>1120176000</v>
-      </c>
-      <c r="B188" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>24067</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>1122854400</v>
-      </c>
-      <c r="B189" t="n">
-        <v>95.6</v>
-      </c>
-      <c r="C189" t="n">
-        <v>24068</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>1125532800</v>
-      </c>
-      <c r="B190" t="n">
-        <v>92</v>
-      </c>
-      <c r="C190" t="n">
-        <v>24069</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>1128124800</v>
-      </c>
-      <c r="B191" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>24070</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>1130803200</v>
-      </c>
-      <c r="B192" t="n">
-        <v>92.4</v>
-      </c>
-      <c r="C192" t="n">
-        <v>24071</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>1133395200</v>
-      </c>
-      <c r="B193" t="n">
-        <v>86.6</v>
-      </c>
-      <c r="C193" t="n">
-        <v>24072</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>1136073600</v>
-      </c>
-      <c r="B194" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="C194" t="n">
-        <v>24073</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>1138752000</v>
-      </c>
-      <c r="B195" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>24074</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>1141171200</v>
-      </c>
-      <c r="B196" t="n">
-        <v>92.4</v>
-      </c>
-      <c r="C196" t="n">
-        <v>24075</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>1143849600</v>
-      </c>
-      <c r="B197" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="C197" t="n">
-        <v>24076</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>1146441600</v>
-      </c>
-      <c r="B198" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="C198" t="n">
-        <v>24077</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>1149120000</v>
-      </c>
-      <c r="B199" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="C199" t="n">
-        <v>24078</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>1151712000</v>
-      </c>
-      <c r="B200" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C200" t="n">
-        <v>24079</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>1154390400</v>
-      </c>
-      <c r="B201" t="n">
-        <v>98.6</v>
-      </c>
-      <c r="C201" t="n">
-        <v>24080</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>1157068800</v>
-      </c>
-      <c r="B202" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="C202" t="n">
-        <v>24081</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>1159660800</v>
-      </c>
-      <c r="B203" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>24082</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>1162339200</v>
-      </c>
-      <c r="B204" t="n">
-        <v>95.9</v>
-      </c>
-      <c r="C204" t="n">
-        <v>24083</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>1164931200</v>
-      </c>
-      <c r="B205" t="n">
-        <v>87</v>
-      </c>
-      <c r="C205" t="n">
-        <v>24084</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1167609600</v>
-      </c>
-      <c r="B206" t="n">
-        <v>87</v>
-      </c>
-      <c r="C206" t="n">
-        <v>24085</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>1170288000</v>
-      </c>
-      <c r="B207" t="n">
-        <v>82.6</v>
-      </c>
-      <c r="C207" t="n">
-        <v>24086</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>1172707200</v>
-      </c>
-      <c r="B208" t="n">
-        <v>96.4</v>
-      </c>
-      <c r="C208" t="n">
-        <v>24087</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>1175385600</v>
-      </c>
-      <c r="B209" t="n">
-        <v>90.6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>24088</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>1177977600</v>
-      </c>
-      <c r="B210" t="n">
-        <v>99.9</v>
-      </c>
-      <c r="C210" t="n">
-        <v>24089</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1180656000</v>
-      </c>
-      <c r="B211" t="n">
-        <v>96.9</v>
-      </c>
-      <c r="C211" t="n">
-        <v>24090</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>1183248000</v>
-      </c>
-      <c r="B212" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>24091</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>1185926400</v>
-      </c>
-      <c r="B213" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>24092</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1188604800</v>
-      </c>
-      <c r="B214" t="n">
-        <v>98.4</v>
-      </c>
-      <c r="C214" t="n">
-        <v>24093</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>1191196800</v>
-      </c>
-      <c r="B215" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="C215" t="n">
-        <v>24094</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>1193875200</v>
-      </c>
-      <c r="B216" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="C216" t="n">
-        <v>24095</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>1196467200</v>
-      </c>
-      <c r="B217" t="n">
-        <v>92.6</v>
-      </c>
-      <c r="C217" t="n">
-        <v>24096</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>1199145600</v>
-      </c>
-      <c r="B218" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="C218" t="n">
-        <v>24097</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>1201824000</v>
-      </c>
-      <c r="B219" t="n">
-        <v>91.1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>24098</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>1204329600</v>
-      </c>
-      <c r="B220" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="C220" t="n">
-        <v>24099</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>1207008000</v>
-      </c>
-      <c r="B221" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C221" t="n">
-        <v>24100</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1209600000</v>
-      </c>
-      <c r="B222" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>24101</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1212278400</v>
-      </c>
-      <c r="B223" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="C223" t="n">
-        <v>24102</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>1214870400</v>
-      </c>
-      <c r="B224" t="n">
-        <v>108.5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>24103</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>1217548800</v>
-      </c>
-      <c r="B225" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="C225" t="n">
-        <v>24104</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>1220227200</v>
-      </c>
-      <c r="B226" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="C226" t="n">
-        <v>24105</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>1222819200</v>
-      </c>
-      <c r="B227" t="n">
-        <v>108.4</v>
-      </c>
-      <c r="C227" t="n">
-        <v>24106</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>1225497600</v>
-      </c>
-      <c r="B228" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C228" t="n">
-        <v>24107</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>1228089600</v>
-      </c>
-      <c r="B229" t="n">
-        <v>79.1</v>
-      </c>
-      <c r="C229" t="n">
-        <v>24108</v>
       </c>
     </row>
   </sheetData>
